--- a/data/output/KPIs_baseline.xlsx
+++ b/data/output/KPIs_baseline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Vie Professionnelle\CDI Dec 2024 - Data Scientist\Entretiens\Quod_Financial\Quod_THA\data\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA0C224-4504-4A04-878C-0E5F7ED6B040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBC1688-F5CD-4512-A72C-E74AC5C53019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="0" windowWidth="14610" windowHeight="16305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="yearly" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>year</t>
   </si>
@@ -50,6 +50,18 @@
   </si>
   <si>
     <t>LinearRegression_MAE</t>
+  </si>
+  <si>
+    <t>RandomForest_RMSE</t>
+  </si>
+  <si>
+    <t>RandomForest_MAE</t>
+  </si>
+  <si>
+    <t>XGBoost_RMSE</t>
+  </si>
+  <si>
+    <t>XGBoost_MAE</t>
   </si>
   <si>
     <t>month</t>
@@ -430,22 +442,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,39 +474,75 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
       <c r="B2">
-        <v>71.956779267814383</v>
+        <v>119.6881160032126</v>
       </c>
       <c r="C2">
-        <v>36.007610403396782</v>
+        <v>47.464053496104128</v>
       </c>
       <c r="D2">
-        <v>65.754465116605175</v>
+        <v>121.1001143174017</v>
       </c>
       <c r="E2">
-        <v>32.0759627045503</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>47.472240239665886</v>
+      </c>
+      <c r="F2">
+        <v>115.963711897241</v>
+      </c>
+      <c r="G2">
+        <v>46.522076341341958</v>
+      </c>
+      <c r="H2">
+        <v>131.02770609922541</v>
+      </c>
+      <c r="I2">
+        <v>47.539947509765618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2019</v>
       </c>
       <c r="B3">
-        <v>60.530085890828317</v>
+        <v>91.681240857849971</v>
       </c>
       <c r="C3">
-        <v>29.762024083849731</v>
+        <v>42.383157409069327</v>
       </c>
       <c r="D3">
-        <v>53.991992791668373</v>
+        <v>96.546136412249552</v>
       </c>
       <c r="E3">
-        <v>25.026321053056261</v>
+        <v>40.568198051076742</v>
+      </c>
+      <c r="F3">
+        <v>99.861586782572147</v>
+      </c>
+      <c r="G3">
+        <v>43.07841844186018</v>
+      </c>
+      <c r="H3">
+        <v>118.876158314546</v>
+      </c>
+      <c r="I3">
+        <v>41.571735382080078</v>
       </c>
     </row>
   </sheetData>
@@ -503,26 +552,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -536,8 +577,20 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2018</v>
       </c>
@@ -545,163 +598,271 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>98.23105910627153</v>
+        <v>128.01218062765369</v>
       </c>
       <c r="D2">
-        <v>41.514185463588888</v>
+        <v>59.239810617286743</v>
       </c>
       <c r="E2">
-        <v>92.528756164647618</v>
+        <v>121.400400707236</v>
       </c>
       <c r="F2">
-        <v>36.471195435943699</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>53.676536205284137</v>
+      </c>
+      <c r="G2">
+        <v>109.1503076420754</v>
+      </c>
+      <c r="H2">
+        <v>53.91372089053386</v>
+      </c>
+      <c r="I2">
+        <v>125.8135284669836</v>
+      </c>
+      <c r="J2">
+        <v>54.218376159667969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="1">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>74.87816701085103</v>
+        <v>144.83152315971211</v>
       </c>
       <c r="D3">
-        <v>32.210618524682367</v>
+        <v>58.541047250561647</v>
       </c>
       <c r="E3">
-        <v>64.648614551953912</v>
+        <v>128.19440323675391</v>
       </c>
       <c r="F3">
-        <v>26.16114019103351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50.473547024985884</v>
+      </c>
+      <c r="G3">
+        <v>116.151754675338</v>
+      </c>
+      <c r="H3">
+        <v>49.796349877073119</v>
+      </c>
+      <c r="I3">
+        <v>143.4372412851697</v>
+      </c>
+      <c r="J3">
+        <v>48.746318817138672</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1">
         <v>6</v>
       </c>
       <c r="C4">
-        <v>52.486217532789041</v>
+        <v>105.5688452133104</v>
       </c>
       <c r="D4">
-        <v>32.350933752534132</v>
+        <v>44.833430690606349</v>
       </c>
       <c r="E4">
-        <v>45.486987992333511</v>
+        <v>102.0499042201578</v>
       </c>
       <c r="F4">
-        <v>27.74806991095031</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>41.268730950166663</v>
+      </c>
+      <c r="G4">
+        <v>97.494239944351847</v>
+      </c>
+      <c r="H4">
+        <v>39.060158745533663</v>
+      </c>
+      <c r="I4">
+        <v>142.58019262199431</v>
+      </c>
+      <c r="J4">
+        <v>41.127918243408203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1">
         <v>7</v>
       </c>
       <c r="C5">
-        <v>93.589266636505442</v>
+        <v>120.8098395259609</v>
       </c>
       <c r="D5">
-        <v>43.259144835772901</v>
+        <v>45.336057558990191</v>
       </c>
       <c r="E5">
-        <v>82.172248102521252</v>
+        <v>123.6902078540606</v>
       </c>
       <c r="F5">
-        <v>38.065700762307969</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>44.131777967790832</v>
+      </c>
+      <c r="G5">
+        <v>116.7676875350402</v>
+      </c>
+      <c r="H5">
+        <v>44.318756352530571</v>
+      </c>
+      <c r="I5">
+        <v>127.98701411178401</v>
+      </c>
+      <c r="J5">
+        <v>44.413063049316413</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1">
         <v>8</v>
       </c>
       <c r="C6">
-        <v>68.5513714721762</v>
+        <v>148.36641337101429</v>
       </c>
       <c r="D6">
-        <v>36.284903872228142</v>
+        <v>49.472631690287237</v>
       </c>
       <c r="E6">
-        <v>64.62879276609047</v>
+        <v>151.3596289346371</v>
       </c>
       <c r="F6">
-        <v>31.165400250472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49.678335718080938</v>
+      </c>
+      <c r="G6">
+        <v>144.69728364861879</v>
+      </c>
+      <c r="H6">
+        <v>50.861574478866437</v>
+      </c>
+      <c r="I6">
+        <v>151.58670554133371</v>
+      </c>
+      <c r="J6">
+        <v>51.969280242919922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="1">
         <v>9</v>
       </c>
       <c r="C7">
-        <v>80.180105903254457</v>
+        <v>139.77026628324541</v>
       </c>
       <c r="D7">
-        <v>43.069614285033758</v>
+        <v>53.888282346114657</v>
       </c>
       <c r="E7">
-        <v>76.678969889430959</v>
+        <v>132.17024168156291</v>
       </c>
       <c r="F7">
-        <v>39.103597743554403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52.736346364099937</v>
+      </c>
+      <c r="G7">
+        <v>119.6598246527148</v>
+      </c>
+      <c r="H7">
+        <v>49.970598008091628</v>
+      </c>
+      <c r="I7">
+        <v>123.374964380694</v>
+      </c>
+      <c r="J7">
+        <v>50.138618469238281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>62.399690323780831</v>
+        <v>100.74531147367161</v>
       </c>
       <c r="D8">
-        <v>34.557103830991728</v>
+        <v>43.218690523318493</v>
       </c>
       <c r="E8">
-        <v>51.028139167757729</v>
+        <v>100.0012538879139</v>
       </c>
       <c r="F8">
-        <v>30.729200769270989</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43.516787934716362</v>
+      </c>
+      <c r="G8">
+        <v>124.24080554918071</v>
+      </c>
+      <c r="H8">
+        <v>49.341203762274503</v>
+      </c>
+      <c r="I8">
+        <v>124.3075508064574</v>
+      </c>
+      <c r="J8">
+        <v>48.876564025878913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
         <v>11</v>
       </c>
       <c r="C9">
-        <v>41.727674761221643</v>
+        <v>87.047430562179613</v>
       </c>
       <c r="D9">
-        <v>28.343922439992021</v>
+        <v>37.394039456165579</v>
       </c>
       <c r="E9">
-        <v>42.896922989428802</v>
+        <v>119.6277215743544</v>
       </c>
       <c r="F9">
-        <v>26.95836737010017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43.834473112096198</v>
+      </c>
+      <c r="G9">
+        <v>111.9763204800259</v>
+      </c>
+      <c r="H9">
+        <v>44.919172608102897</v>
+      </c>
+      <c r="I9">
+        <v>124.05263263656479</v>
+      </c>
+      <c r="J9">
+        <v>48.237899780273438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1">
         <v>12</v>
       </c>
       <c r="C10">
-        <v>62.198301436927238</v>
+        <v>77.272406546156347</v>
       </c>
       <c r="D10">
-        <v>33.775148334297427</v>
+        <v>34.306570480158157</v>
       </c>
       <c r="E10">
-        <v>61.39506527386208</v>
+        <v>101.0829752405792</v>
       </c>
       <c r="F10">
-        <v>33.732513327958813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47.972792324143242</v>
+      </c>
+      <c r="G10">
+        <v>95.807680213568716</v>
+      </c>
+      <c r="H10">
+        <v>36.240636186844888</v>
+      </c>
+      <c r="I10">
+        <v>109.2693775721268</v>
+      </c>
+      <c r="J10">
+        <v>40.021797180175781</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2019</v>
       </c>
@@ -709,160 +870,268 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>53.304346624306497</v>
+        <v>104.0431769730409</v>
       </c>
       <c r="D11">
-        <v>32.699611513638352</v>
+        <v>59.019698711961119</v>
       </c>
       <c r="E11">
-        <v>53.409679276676833</v>
+        <v>133.8202977630217</v>
       </c>
       <c r="F11">
-        <v>31.332854252361312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>62.608951816333082</v>
+      </c>
+      <c r="G11">
+        <v>143.35769335277379</v>
+      </c>
+      <c r="H11">
+        <v>54.718035258730978</v>
+      </c>
+      <c r="I11">
+        <v>154.11702255307489</v>
+      </c>
+      <c r="J11">
+        <v>46.837833404541023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>70.788516043998001</v>
+        <v>96.704859452357496</v>
       </c>
       <c r="D12">
-        <v>30.7588680437166</v>
+        <v>49.617946524455867</v>
       </c>
       <c r="E12">
-        <v>62.097289186929068</v>
+        <v>92.12001047891512</v>
       </c>
       <c r="F12">
-        <v>24.867718754447971</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39.795271661691388</v>
+      </c>
+      <c r="G12">
+        <v>80.870196443335814</v>
+      </c>
+      <c r="H12">
+        <v>35.431073087450507</v>
+      </c>
+      <c r="I12">
+        <v>82.305004523001216</v>
+      </c>
+      <c r="J12">
+        <v>34.180690765380859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="1">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>54.797951051785603</v>
+        <v>91.365210566241061</v>
       </c>
       <c r="D13">
-        <v>30.392893445182271</v>
+        <v>48.305832121750079</v>
       </c>
       <c r="E13">
-        <v>47.779856917050012</v>
+        <v>86.038944269490955</v>
       </c>
       <c r="F13">
-        <v>25.396182677778562</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>43.542854836293159</v>
+      </c>
+      <c r="G13">
+        <v>94.728409161921789</v>
+      </c>
+      <c r="H13">
+        <v>47.897649955407452</v>
+      </c>
+      <c r="I13">
+        <v>94.77920476692131</v>
+      </c>
+      <c r="J13">
+        <v>43.217819213867188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="1">
         <v>4</v>
       </c>
       <c r="C14">
-        <v>80.020263872741054</v>
+        <v>104.7472651505151</v>
       </c>
       <c r="D14">
-        <v>33.335614126552088</v>
+        <v>43.919403237892247</v>
       </c>
       <c r="E14">
-        <v>67.893897070969047</v>
+        <v>99.343769894174201</v>
       </c>
       <c r="F14">
-        <v>27.068812465606339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>42.042093618218608</v>
+      </c>
+      <c r="G14">
+        <v>95.886237783405306</v>
+      </c>
+      <c r="H14">
+        <v>46.579477410415613</v>
+      </c>
+      <c r="I14">
+        <v>103.30587357757059</v>
+      </c>
+      <c r="J14">
+        <v>49.130054473876953</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="1">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>76.172696854858316</v>
+        <v>104.342003525731</v>
       </c>
       <c r="D15">
-        <v>29.9919586269862</v>
+        <v>42.825118556544233</v>
       </c>
       <c r="E15">
-        <v>63.785213062533423</v>
+        <v>96.099635629710519</v>
       </c>
       <c r="F15">
-        <v>24.802569815024231</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>38.226639631978337</v>
+      </c>
+      <c r="G15">
+        <v>102.0297977421183</v>
+      </c>
+      <c r="H15">
+        <v>48.639839366739153</v>
+      </c>
+      <c r="I15">
+        <v>107.8918005457319</v>
+      </c>
+      <c r="J15">
+        <v>48.654705047607422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="1">
         <v>6</v>
       </c>
       <c r="C16">
-        <v>40.850752229741147</v>
+        <v>84.254172603765653</v>
       </c>
       <c r="D16">
-        <v>26.677582147328859</v>
+        <v>36.289813676152548</v>
       </c>
       <c r="E16">
-        <v>35.276940306487539</v>
+        <v>87.071346411617895</v>
       </c>
       <c r="F16">
-        <v>21.139785659508849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>35.93017885923534</v>
+      </c>
+      <c r="G16">
+        <v>79.080209055120562</v>
+      </c>
+      <c r="H16">
+        <v>38.963987917466497</v>
+      </c>
+      <c r="I16">
+        <v>71.380506847545576</v>
+      </c>
+      <c r="J16">
+        <v>35.552913665771477</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="1">
         <v>7</v>
       </c>
       <c r="C17">
-        <v>43.695282213001697</v>
+        <v>75.872637340651053</v>
       </c>
       <c r="D17">
-        <v>26.43105282336068</v>
+        <v>32.207488555171523</v>
       </c>
       <c r="E17">
-        <v>40.095127234125279</v>
+        <v>85.457088228571735</v>
       </c>
       <c r="F17">
-        <v>21.759329390339438</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33.562379312579843</v>
+      </c>
+      <c r="G17">
+        <v>90.956539468638709</v>
+      </c>
+      <c r="H17">
+        <v>38.630125550587167</v>
+      </c>
+      <c r="I17">
+        <v>100.2308663162202</v>
+      </c>
+      <c r="J17">
+        <v>37.175048828125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="1">
         <v>8</v>
       </c>
       <c r="C18">
-        <v>60.573432882693673</v>
+        <v>73.045384699989242</v>
       </c>
       <c r="D18">
-        <v>29.478872880314501</v>
+        <v>31.487901691365469</v>
       </c>
       <c r="E18">
-        <v>59.877662563843593</v>
+        <v>86.702328683285401</v>
       </c>
       <c r="F18">
-        <v>25.36268561069091</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31.724593952156081</v>
+      </c>
+      <c r="G18">
+        <v>95.198418854177973</v>
+      </c>
+      <c r="H18">
+        <v>34.964416191479621</v>
+      </c>
+      <c r="I18">
+        <v>181.05289929672489</v>
+      </c>
+      <c r="J18">
+        <v>39.336032867431641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="1">
         <v>9</v>
       </c>
       <c r="C19">
-        <v>47.933036479450152</v>
+        <v>77.028749282919762</v>
       </c>
       <c r="D19">
-        <v>27.03781669578526</v>
+        <v>32.595844375957938</v>
       </c>
       <c r="E19">
-        <v>43.97601638034444</v>
+        <v>85.798829455150184</v>
       </c>
       <c r="F19">
-        <v>22.234064146955589</v>
+        <v>33.339528683259942</v>
+      </c>
+      <c r="G19">
+        <v>97.704844068718984</v>
+      </c>
+      <c r="H19">
+        <v>39.407415241252679</v>
+      </c>
+      <c r="I19">
+        <v>140.32093515847879</v>
+      </c>
+      <c r="J19">
+        <v>38.819690704345703</v>
       </c>
     </row>
   </sheetData>
@@ -876,24 +1145,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -907,125 +1179,225 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>75.799692674159729</v>
+        <v>127.0926735032879</v>
       </c>
       <c r="C2">
-        <v>34.994923387554003</v>
+        <v>54.170850292210567</v>
       </c>
       <c r="D2">
-        <v>68.488495584564106</v>
+        <v>117.6863574411686</v>
       </c>
       <c r="E2">
-        <v>29.772954647498711</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48.446129955631292</v>
+      </c>
+      <c r="F2">
+        <v>107.8400780109031</v>
+      </c>
+      <c r="G2">
+        <v>47.558245255590151</v>
+      </c>
+      <c r="H2">
+        <v>137.53987347992941</v>
+      </c>
+      <c r="I2">
+        <v>48.004520416259773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>81.73338149586273</v>
+        <v>136.68523605441641</v>
       </c>
       <c r="C3">
-        <v>40.924968689864777</v>
+        <v>49.511784741181422</v>
       </c>
       <c r="D3">
-        <v>75.033532005331381</v>
+        <v>136.18019659414799</v>
       </c>
       <c r="E3">
-        <v>36.153687070953048</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48.794488583790347</v>
+      </c>
+      <c r="F3">
+        <v>127.63959174172901</v>
+      </c>
+      <c r="G3">
+        <v>48.347685118712313</v>
+      </c>
+      <c r="H3">
+        <v>134.9079836870302</v>
+      </c>
+      <c r="I3">
+        <v>48.803810119628913</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>56.416366725289897</v>
+        <v>88.972076378361848</v>
       </c>
       <c r="C4">
-        <v>32.286729590310827</v>
+        <v>38.341987243789603</v>
       </c>
       <c r="D4">
-        <v>52.08675147756437</v>
+        <v>107.28626641680449</v>
       </c>
       <c r="E4">
-        <v>30.421543897576971</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>45.089240707956428</v>
+      </c>
+      <c r="F4">
+        <v>111.3999477769579</v>
+      </c>
+      <c r="G4">
+        <v>43.554196864428079</v>
+      </c>
+      <c r="H4">
+        <v>119.4792043555593</v>
+      </c>
+      <c r="I4">
+        <v>45.749397277832031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>59.95216505886912</v>
+        <v>97.608863789251814</v>
       </c>
       <c r="C5">
-        <v>31.300494316922691</v>
+        <v>52.403135341598748</v>
       </c>
       <c r="D5">
-        <v>54.631288394208838</v>
+        <v>106.5495387071112</v>
       </c>
       <c r="E5">
-        <v>27.258508118050869</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>48.816708328369977</v>
+      </c>
+      <c r="F5">
+        <v>110.10773267315891</v>
+      </c>
+      <c r="G5">
+        <v>46.093744059698928</v>
+      </c>
+      <c r="H5">
+        <v>115.3191774828129</v>
+      </c>
+      <c r="I5">
+        <v>41.457550048828118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>68.5149707263583</v>
+        <v>98.37539232546014</v>
       </c>
       <c r="C6">
-        <v>30.047884541423599</v>
+        <v>41.061085362262283</v>
       </c>
       <c r="D6">
-        <v>57.918921208617547</v>
+        <v>94.394023241411574</v>
       </c>
       <c r="E6">
-        <v>24.39286215141302</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>38.773685738404403</v>
+      </c>
+      <c r="F6">
+        <v>92.940371105310604</v>
+      </c>
+      <c r="G6">
+        <v>44.776298408511558</v>
+      </c>
+      <c r="H6">
+        <v>95.768927633131611</v>
+      </c>
+      <c r="I6">
+        <v>44.53375244140625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>50.898269065637507</v>
+        <v>75.304531886982019</v>
       </c>
       <c r="C7">
-        <v>27.59004887583605</v>
+        <v>32.087440541157868</v>
       </c>
       <c r="D7">
-        <v>48.354081757913463</v>
+        <v>85.98081672818617</v>
       </c>
       <c r="E7">
-        <v>23.051999996704161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>32.879141959231838</v>
+      </c>
+      <c r="F7">
+        <v>94.507866628548825</v>
+      </c>
+      <c r="G7">
+        <v>37.646161420638528</v>
+      </c>
+      <c r="H7">
+        <v>143.6437786896808</v>
+      </c>
+      <c r="I7">
+        <v>38.407150268554688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f>AVERAGE(B2:B7)</f>
-        <v>65.552474291029554</v>
+        <v>104.00646232296002</v>
       </c>
       <c r="C8" s="3">
-        <f t="shared" ref="C8:E8" si="0">AVERAGE(C2:C7)</f>
-        <v>32.857508233651991</v>
+        <f t="shared" ref="C8:I8" si="0">AVERAGE(C2:C7)</f>
+        <v>44.596047253700085</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>59.418845071366626</v>
+        <v>108.01286652147166</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>28.508592647032795</v>
+        <v>43.799899212230713</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>107.40593132276807</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>44.66272185459659</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>124.4431575546907</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="0"/>
+        <v>44.492696762084961</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/KPIs_baseline.xlsx
+++ b/data/output/KPIs_baseline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Vie Professionnelle\CDI Dec 2024 - Data Scientist\Entretiens\Quod_Financial\Quod_THA\data\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBC1688-F5CD-4512-A72C-E74AC5C53019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E5DBF5-1B68-4E01-94AE-683DEA95D5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -444,19 +444,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -492,28 +482,28 @@
         <v>2018</v>
       </c>
       <c r="B2">
-        <v>119.6881160032126</v>
+        <v>143.57376690870879</v>
       </c>
       <c r="C2">
-        <v>47.464053496104128</v>
+        <v>66.588904743737203</v>
       </c>
       <c r="D2">
-        <v>121.1001143174017</v>
+        <v>127.21689189525109</v>
       </c>
       <c r="E2">
-        <v>47.472240239665886</v>
+        <v>53.267339823691373</v>
       </c>
       <c r="F2">
-        <v>115.963711897241</v>
+        <v>133.8883848032647</v>
       </c>
       <c r="G2">
-        <v>46.522076341341958</v>
+        <v>54.99201825743944</v>
       </c>
       <c r="H2">
-        <v>131.02770609922541</v>
+        <v>143.96078974628821</v>
       </c>
       <c r="I2">
-        <v>47.539947509765618</v>
+        <v>54.485065460205078</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -521,28 +511,28 @@
         <v>2019</v>
       </c>
       <c r="B3">
-        <v>91.681240857849971</v>
+        <v>119.22669120869431</v>
       </c>
       <c r="C3">
-        <v>42.383157409069327</v>
+        <v>55.628448522028563</v>
       </c>
       <c r="D3">
-        <v>96.546136412249552</v>
+        <v>103.4479088087202</v>
       </c>
       <c r="E3">
-        <v>40.568198051076742</v>
+        <v>46.729419300642263</v>
       </c>
       <c r="F3">
-        <v>99.861586782572147</v>
+        <v>126.7988228935135</v>
       </c>
       <c r="G3">
-        <v>43.07841844186018</v>
+        <v>49.314942821024353</v>
       </c>
       <c r="H3">
-        <v>118.876158314546</v>
+        <v>124.3336379087534</v>
       </c>
       <c r="I3">
-        <v>41.571735382080078</v>
+        <v>48.046573638916023</v>
       </c>
     </row>
   </sheetData>
@@ -598,28 +588,28 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>128.01218062765369</v>
+        <v>154.75173902527399</v>
       </c>
       <c r="D2">
-        <v>59.239810617286743</v>
+        <v>78.778362361814203</v>
       </c>
       <c r="E2">
-        <v>121.400400707236</v>
+        <v>134.53268680439899</v>
       </c>
       <c r="F2">
-        <v>53.676536205284137</v>
+        <v>66.076306333438112</v>
       </c>
       <c r="G2">
-        <v>109.1503076420754</v>
+        <v>129.0209130248783</v>
       </c>
       <c r="H2">
-        <v>53.91372089053386</v>
+        <v>60.071037133425861</v>
       </c>
       <c r="I2">
-        <v>125.8135284669836</v>
+        <v>123.4821042828676</v>
       </c>
       <c r="J2">
-        <v>54.218376159667969</v>
+        <v>57.900482177734382</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -628,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>144.83152315971211</v>
+        <v>163.23832599365929</v>
       </c>
       <c r="D3">
-        <v>58.541047250561647</v>
+        <v>76.115152495946504</v>
       </c>
       <c r="E3">
-        <v>128.19440323675391</v>
+        <v>136.1600576342264</v>
       </c>
       <c r="F3">
-        <v>50.473547024985884</v>
+        <v>61.353418336677379</v>
       </c>
       <c r="G3">
-        <v>116.151754675338</v>
+        <v>125.0688060723148</v>
       </c>
       <c r="H3">
-        <v>49.796349877073119</v>
+        <v>50.635681933066557</v>
       </c>
       <c r="I3">
-        <v>143.4372412851697</v>
+        <v>137.1443696438173</v>
       </c>
       <c r="J3">
-        <v>48.746318817138672</v>
+        <v>50.011604309082031</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -658,28 +648,28 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>105.5688452133104</v>
+        <v>131.7918773700591</v>
       </c>
       <c r="D4">
-        <v>44.833430690606349</v>
+        <v>68.080075434431834</v>
       </c>
       <c r="E4">
-        <v>102.0499042201578</v>
+        <v>101.9329202887466</v>
       </c>
       <c r="F4">
-        <v>41.268730950166663</v>
+        <v>53.187530346995118</v>
       </c>
       <c r="G4">
-        <v>97.494239944351847</v>
+        <v>107.46628959722879</v>
       </c>
       <c r="H4">
-        <v>39.060158745533663</v>
+        <v>45.514245093104428</v>
       </c>
       <c r="I4">
-        <v>142.58019262199431</v>
+        <v>92.875021029607311</v>
       </c>
       <c r="J4">
-        <v>41.127918243408203</v>
+        <v>42.119743347167969</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -688,28 +678,28 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>120.8098395259609</v>
+        <v>144.50684433805631</v>
       </c>
       <c r="D5">
-        <v>45.336057558990191</v>
+        <v>63.575090532008844</v>
       </c>
       <c r="E5">
-        <v>123.6902078540606</v>
+        <v>123.55797156512671</v>
       </c>
       <c r="F5">
-        <v>44.131777967790832</v>
+        <v>49.601516367125697</v>
       </c>
       <c r="G5">
-        <v>116.7676875350402</v>
+        <v>138.29260164058809</v>
       </c>
       <c r="H5">
-        <v>44.318756352530571</v>
+        <v>60.148559067100003</v>
       </c>
       <c r="I5">
-        <v>127.98701411178401</v>
+        <v>136.08339871655909</v>
       </c>
       <c r="J5">
-        <v>44.413063049316413</v>
+        <v>58.843021392822273</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -718,28 +708,28 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>148.36641337101429</v>
+        <v>172.6195367411768</v>
       </c>
       <c r="D6">
-        <v>49.472631690287237</v>
+        <v>69.324522482057176</v>
       </c>
       <c r="E6">
-        <v>151.3596289346371</v>
+        <v>161.46302624524699</v>
       </c>
       <c r="F6">
-        <v>49.678335718080938</v>
+        <v>54.392185382389677</v>
       </c>
       <c r="G6">
-        <v>144.69728364861879</v>
+        <v>166.7781283368291</v>
       </c>
       <c r="H6">
-        <v>50.861574478866437</v>
+        <v>64.263683137251476</v>
       </c>
       <c r="I6">
-        <v>151.58670554133371</v>
+        <v>166.87813082269051</v>
       </c>
       <c r="J6">
-        <v>51.969280242919922</v>
+        <v>62.567600250244141</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -748,28 +738,28 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>139.77026628324541</v>
+        <v>165.19496611011331</v>
       </c>
       <c r="D7">
-        <v>53.888282346114657</v>
+        <v>73.799189163350462</v>
       </c>
       <c r="E7">
-        <v>132.17024168156291</v>
+        <v>139.65585455652069</v>
       </c>
       <c r="F7">
-        <v>52.736346364099937</v>
+        <v>56.488698766463358</v>
       </c>
       <c r="G7">
-        <v>119.6598246527148</v>
+        <v>153.29547650508141</v>
       </c>
       <c r="H7">
-        <v>49.970598008091628</v>
+        <v>64.994993603206538</v>
       </c>
       <c r="I7">
-        <v>123.374964380694</v>
+        <v>209.85170545232651</v>
       </c>
       <c r="J7">
-        <v>50.138618469238281</v>
+        <v>65.746925354003906</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -778,28 +768,28 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>100.74531147367161</v>
+        <v>120.85587569132601</v>
       </c>
       <c r="D8">
-        <v>43.218690523318493</v>
+        <v>60.937873079292601</v>
       </c>
       <c r="E8">
-        <v>100.0012538879139</v>
+        <v>126.24145892411249</v>
       </c>
       <c r="F8">
-        <v>43.516787934716362</v>
+        <v>48.31376731907249</v>
       </c>
       <c r="G8">
-        <v>124.24080554918071</v>
+        <v>128.11342621027271</v>
       </c>
       <c r="H8">
-        <v>49.341203762274503</v>
+        <v>53.388467918792067</v>
       </c>
       <c r="I8">
-        <v>124.3075508064574</v>
+        <v>121.87225958457491</v>
       </c>
       <c r="J8">
-        <v>48.876564025878913</v>
+        <v>51.277015686035163</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -808,28 +798,28 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>87.047430562179613</v>
+        <v>113.2858726075914</v>
       </c>
       <c r="D9">
-        <v>37.394039456165579</v>
+        <v>56.351937663080733</v>
       </c>
       <c r="E9">
-        <v>119.6277215743544</v>
+        <v>100.9794759674905</v>
       </c>
       <c r="F9">
-        <v>43.834473112096198</v>
+        <v>43.390666561699888</v>
       </c>
       <c r="G9">
-        <v>111.9763204800259</v>
+        <v>135.37255307201431</v>
       </c>
       <c r="H9">
-        <v>44.919172608102897</v>
+        <v>49.927628678920868</v>
       </c>
       <c r="I9">
-        <v>124.05263263656479</v>
+        <v>130.4263890811595</v>
       </c>
       <c r="J9">
-        <v>48.237899780273438</v>
+        <v>49.327774047851563</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -838,28 +828,28 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>77.272406546156347</v>
+        <v>107.20462737579351</v>
       </c>
       <c r="D10">
-        <v>34.306570480158157</v>
+        <v>51.225415268910297</v>
       </c>
       <c r="E10">
-        <v>101.0829752405792</v>
+        <v>106.8372436822148</v>
       </c>
       <c r="F10">
-        <v>47.972792324143242</v>
+        <v>45.839004703725877</v>
       </c>
       <c r="G10">
-        <v>95.807680213568716</v>
+        <v>110.85284956640579</v>
       </c>
       <c r="H10">
-        <v>36.240636186844888</v>
+        <v>45.660875899904489</v>
       </c>
       <c r="I10">
-        <v>109.2693775721268</v>
+        <v>148.89791752657251</v>
       </c>
       <c r="J10">
-        <v>40.021797180175781</v>
+        <v>52.648960113525391</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -870,28 +860,28 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>104.0431769730409</v>
+        <v>105.1413720863638</v>
       </c>
       <c r="D11">
-        <v>59.019698711961119</v>
+        <v>62.918945041360629</v>
       </c>
       <c r="E11">
-        <v>133.8202977630217</v>
+        <v>121.6283246763375</v>
       </c>
       <c r="F11">
-        <v>62.608951816333082</v>
+        <v>69.294745694563872</v>
       </c>
       <c r="G11">
-        <v>143.35769335277379</v>
+        <v>179.69894101456131</v>
       </c>
       <c r="H11">
-        <v>54.718035258730978</v>
+        <v>71.154567793325938</v>
       </c>
       <c r="I11">
-        <v>154.11702255307489</v>
+        <v>178.18960999276871</v>
       </c>
       <c r="J11">
-        <v>46.837833404541023</v>
+        <v>68.605232238769531</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -900,28 +890,28 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>96.704859452357496</v>
+        <v>126.34968695021171</v>
       </c>
       <c r="D12">
-        <v>49.617946524455867</v>
+        <v>58.622496755845212</v>
       </c>
       <c r="E12">
-        <v>92.12001047891512</v>
+        <v>102.32089493007361</v>
       </c>
       <c r="F12">
-        <v>39.795271661691388</v>
+        <v>49.704049590388507</v>
       </c>
       <c r="G12">
-        <v>80.870196443335814</v>
+        <v>109.60025195751869</v>
       </c>
       <c r="H12">
-        <v>35.431073087450507</v>
+        <v>37.512288565677132</v>
       </c>
       <c r="I12">
-        <v>82.305004523001216</v>
+        <v>98.337076751663204</v>
       </c>
       <c r="J12">
-        <v>34.180690765380859</v>
+        <v>35.922721862792969</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -930,28 +920,28 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>91.365210566241061</v>
+        <v>117.7704099477958</v>
       </c>
       <c r="D13">
-        <v>48.305832121750079</v>
+        <v>58.352132895422891</v>
       </c>
       <c r="E13">
-        <v>86.038944269490955</v>
+        <v>99.448890326882918</v>
       </c>
       <c r="F13">
-        <v>43.542854836293159</v>
+        <v>52.207790224945008</v>
       </c>
       <c r="G13">
-        <v>94.728409161921789</v>
+        <v>123.25873686812029</v>
       </c>
       <c r="H13">
-        <v>47.897649955407452</v>
+        <v>51.464831647724331</v>
       </c>
       <c r="I13">
-        <v>94.77920476692131</v>
+        <v>108.0777262985996</v>
       </c>
       <c r="J13">
-        <v>43.217819213867188</v>
+        <v>50.54901123046875</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -960,28 +950,28 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>104.7472651505151</v>
+        <v>139.31746872604921</v>
       </c>
       <c r="D14">
-        <v>43.919403237892247</v>
+        <v>59.361136451198853</v>
       </c>
       <c r="E14">
-        <v>99.343769894174201</v>
+        <v>109.51395244216791</v>
       </c>
       <c r="F14">
-        <v>42.042093618218608</v>
+        <v>48.030675891011477</v>
       </c>
       <c r="G14">
-        <v>95.886237783405306</v>
+        <v>125.8975747633812</v>
       </c>
       <c r="H14">
-        <v>46.579477410415613</v>
+        <v>62.563760940459098</v>
       </c>
       <c r="I14">
-        <v>103.30587357757059</v>
+        <v>139.04242832675209</v>
       </c>
       <c r="J14">
-        <v>49.130054473876953</v>
+        <v>65.384620666503906</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -990,28 +980,28 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>104.342003525731</v>
+        <v>133.43996766894719</v>
       </c>
       <c r="D15">
-        <v>42.825118556544233</v>
+        <v>57.928742323361099</v>
       </c>
       <c r="E15">
-        <v>96.099635629710519</v>
+        <v>99.567881795771527</v>
       </c>
       <c r="F15">
-        <v>38.226639631978337</v>
+        <v>47.505694294122883</v>
       </c>
       <c r="G15">
-        <v>102.0297977421183</v>
+        <v>97.332718519491536</v>
       </c>
       <c r="H15">
-        <v>48.639839366739153</v>
+        <v>47.782030341365619</v>
       </c>
       <c r="I15">
-        <v>107.8918005457319</v>
+        <v>96.186256286631206</v>
       </c>
       <c r="J15">
-        <v>48.654705047607422</v>
+        <v>45.690746307373047</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1020,28 +1010,28 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>84.254172603765653</v>
+        <v>123.9653903599974</v>
       </c>
       <c r="D16">
-        <v>36.289813676152548</v>
+        <v>53.384500558438553</v>
       </c>
       <c r="E16">
-        <v>87.071346411617895</v>
+        <v>88.024223516011048</v>
       </c>
       <c r="F16">
-        <v>35.93017885923534</v>
+        <v>38.01781992084311</v>
       </c>
       <c r="G16">
-        <v>79.080209055120562</v>
+        <v>110.33753605059179</v>
       </c>
       <c r="H16">
-        <v>38.963987917466497</v>
+        <v>32.892459997891869</v>
       </c>
       <c r="I16">
-        <v>71.380506847545576</v>
+        <v>117.543197677758</v>
       </c>
       <c r="J16">
-        <v>35.552913665771477</v>
+        <v>32.296524047851563</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1050,28 +1040,28 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>75.872637340651053</v>
+        <v>102.56417813886731</v>
       </c>
       <c r="D17">
-        <v>32.207488555171523</v>
+        <v>47.758798156399827</v>
       </c>
       <c r="E17">
-        <v>85.457088228571735</v>
+        <v>97.109800326659681</v>
       </c>
       <c r="F17">
-        <v>33.562379312579843</v>
+        <v>36.59586333040086</v>
       </c>
       <c r="G17">
-        <v>90.956539468638709</v>
+        <v>119.83934164716381</v>
       </c>
       <c r="H17">
-        <v>38.630125550587167</v>
+        <v>42.350656483721032</v>
       </c>
       <c r="I17">
-        <v>100.2308663162202</v>
+        <v>111.7905232734421</v>
       </c>
       <c r="J17">
-        <v>37.175048828125</v>
+        <v>39.387680053710938</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1080,28 +1070,28 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>73.045384699989242</v>
+        <v>98.476168321544435</v>
       </c>
       <c r="D18">
-        <v>31.487901691365469</v>
+        <v>49.933429213266074</v>
       </c>
       <c r="E18">
-        <v>86.702328683285401</v>
+        <v>107.84395788383451</v>
       </c>
       <c r="F18">
-        <v>31.724593952156081</v>
+        <v>38.367118491593232</v>
       </c>
       <c r="G18">
-        <v>95.198418854177973</v>
+        <v>138.96994935007271</v>
       </c>
       <c r="H18">
-        <v>34.964416191479621</v>
+        <v>49.27855593357588</v>
       </c>
       <c r="I18">
-        <v>181.05289929672489</v>
+        <v>138.40649342380939</v>
       </c>
       <c r="J18">
-        <v>39.336032867431641</v>
+        <v>47.891437530517578</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1110,28 +1100,28 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>77.028749282919762</v>
+        <v>116.83627039365859</v>
       </c>
       <c r="D19">
-        <v>32.595844375957938</v>
+        <v>49.549925662601197</v>
       </c>
       <c r="E19">
-        <v>85.798829455150184</v>
+        <v>99.935300110712348</v>
       </c>
       <c r="F19">
-        <v>33.339528683259942</v>
+        <v>35.351075803979043</v>
       </c>
       <c r="G19">
-        <v>97.704844068718984</v>
+        <v>111.9498385275666</v>
       </c>
       <c r="H19">
-        <v>39.407415241252679</v>
+        <v>46.168694688769463</v>
       </c>
       <c r="I19">
-        <v>140.32093515847879</v>
+        <v>101.70232202210281</v>
       </c>
       <c r="J19">
-        <v>38.819690704345703</v>
+        <v>43.798042297363281</v>
       </c>
     </row>
   </sheetData>
@@ -1148,20 +1138,10 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1197,28 +1177,28 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>127.0926735032879</v>
+        <v>150.45391034955429</v>
       </c>
       <c r="C2">
-        <v>54.170850292210567</v>
+        <v>74.301324694551013</v>
       </c>
       <c r="D2">
-        <v>117.6863574411686</v>
+        <v>125.12957591080981</v>
       </c>
       <c r="E2">
-        <v>48.446129955631292</v>
+        <v>60.179192091626597</v>
       </c>
       <c r="F2">
-        <v>107.8400780109031</v>
+        <v>120.8355673219571</v>
       </c>
       <c r="G2">
-        <v>47.558245255590151</v>
+        <v>52.047441689046828</v>
       </c>
       <c r="H2">
-        <v>137.53987347992941</v>
+        <v>119.1982452877873</v>
       </c>
       <c r="I2">
-        <v>48.004520416259773</v>
+        <v>49.980037689208977</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1226,28 +1206,28 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>136.68523605441641</v>
+        <v>161.0863125160304</v>
       </c>
       <c r="C3">
-        <v>49.511784741181422</v>
+        <v>68.83512167789641</v>
       </c>
       <c r="D3">
-        <v>136.18019659414799</v>
+        <v>142.3119980262598</v>
       </c>
       <c r="E3">
-        <v>48.794488583790347</v>
+        <v>53.450613306523763</v>
       </c>
       <c r="F3">
-        <v>127.63959174172901</v>
+        <v>153.13912943918041</v>
       </c>
       <c r="G3">
-        <v>48.347685118712313</v>
+        <v>63.105051137011152</v>
       </c>
       <c r="H3">
-        <v>134.9079836870302</v>
+        <v>173.13128937131779</v>
       </c>
       <c r="I3">
-        <v>48.803810119628913</v>
+        <v>62.342323303222663</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1255,28 +1235,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>88.972076378361848</v>
+        <v>113.9740140245825</v>
       </c>
       <c r="C4">
-        <v>38.341987243789603</v>
+        <v>56.211167914884413</v>
       </c>
       <c r="D4">
-        <v>107.28626641680449</v>
+        <v>111.9506809670338</v>
       </c>
       <c r="E4">
-        <v>45.089240707956428</v>
+        <v>45.856411006096081</v>
       </c>
       <c r="F4">
-        <v>111.3999477769579</v>
+        <v>125.2754670583189</v>
       </c>
       <c r="G4">
-        <v>43.554196864428079</v>
+        <v>49.690432001988881</v>
       </c>
       <c r="H4">
-        <v>119.4792043555593</v>
+        <v>134.09432897218289</v>
       </c>
       <c r="I4">
-        <v>45.749397277832031</v>
+        <v>51.078010559082031</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1284,28 +1264,28 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>97.608863789251814</v>
+        <v>116.62903153454791</v>
       </c>
       <c r="C5">
-        <v>52.403135341598748</v>
+        <v>60.002781108502177</v>
       </c>
       <c r="D5">
-        <v>106.5495387071112</v>
+        <v>108.43570462712189</v>
       </c>
       <c r="E5">
-        <v>48.816708328369977</v>
+        <v>57.217741586926628</v>
       </c>
       <c r="F5">
-        <v>110.10773267315891</v>
+        <v>141.358766436298</v>
       </c>
       <c r="G5">
-        <v>46.093744059698928</v>
+        <v>53.566865761241729</v>
       </c>
       <c r="H5">
-        <v>115.3191774828129</v>
+        <v>133.6944101767161</v>
       </c>
       <c r="I5">
-        <v>41.457550048828118</v>
+        <v>51.869220733642578</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1313,28 +1293,28 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>98.37539232546014</v>
+        <v>132.4926232490449</v>
       </c>
       <c r="C6">
-        <v>41.061085362262283</v>
+        <v>56.930531196265342</v>
       </c>
       <c r="D6">
-        <v>94.394023241411574</v>
+        <v>99.565081067831798</v>
       </c>
       <c r="E6">
-        <v>38.773685738404403</v>
+        <v>44.582915468465451</v>
       </c>
       <c r="F6">
-        <v>92.940371105310604</v>
+        <v>111.9161070816056</v>
       </c>
       <c r="G6">
-        <v>44.776298408511558</v>
+        <v>47.942533291381757</v>
       </c>
       <c r="H6">
-        <v>95.768927633131611</v>
+        <v>119.04855561387549</v>
       </c>
       <c r="I6">
-        <v>44.53375244140625</v>
+        <v>48.010738372802727</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1342,62 +1322,62 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>75.304531886982019</v>
+        <v>105.90419507773569</v>
       </c>
       <c r="C7">
-        <v>32.087440541157868</v>
+        <v>49.040878790275492</v>
       </c>
       <c r="D7">
-        <v>85.98081672818617</v>
+        <v>101.67658524768041</v>
       </c>
       <c r="E7">
-        <v>32.879141959231838</v>
+        <v>36.801794696218167</v>
       </c>
       <c r="F7">
-        <v>94.507866628548825</v>
+        <v>124.293955861491</v>
       </c>
       <c r="G7">
-        <v>37.646161420638528</v>
+        <v>45.849637606622792</v>
       </c>
       <c r="H7">
-        <v>143.6437786896808</v>
+        <v>118.55224899675039</v>
       </c>
       <c r="I7">
-        <v>38.407150268554688</v>
+        <v>43.596935272216797</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <f>AVERAGE(B2:B7)</f>
-        <v>104.00646232296002</v>
+        <v>130.09001445858263</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:I8" si="0">AVERAGE(C2:C7)</f>
-        <v>44.596047253700085</v>
+        <v>60.886967563729144</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>108.01286652147166</v>
+        <v>114.84493764112294</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>43.799899212230713</v>
+        <v>49.681444692642778</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>107.40593132276807</v>
+        <v>129.46983219980851</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="0"/>
-        <v>44.66272185459659</v>
+        <v>52.033660247882189</v>
       </c>
       <c r="H8" s="3">
         <f t="shared" si="0"/>
-        <v>124.4431575546907</v>
+        <v>132.95317973643833</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
-        <v>44.492696762084961</v>
+        <v>51.146210988362633</v>
       </c>
     </row>
   </sheetData>
